--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.63648790913714</v>
+        <v>8.938724000000001</v>
       </c>
       <c r="H2">
-        <v>8.63648790913714</v>
+        <v>17.877448</v>
       </c>
       <c r="I2">
-        <v>0.3420751874765015</v>
+        <v>0.3465268197322601</v>
       </c>
       <c r="J2">
-        <v>0.3420751874765015</v>
+        <v>0.2718125595206999</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N2">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O2">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P2">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q2">
-        <v>42.49281544623486</v>
+        <v>49.618682618882</v>
       </c>
       <c r="R2">
-        <v>42.49281544623486</v>
+        <v>198.474730475528</v>
       </c>
       <c r="S2">
-        <v>0.1520951084839062</v>
+        <v>0.1589836857272229</v>
       </c>
       <c r="T2">
-        <v>0.1520951084839062</v>
+        <v>0.1001389840672071</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.63648790913714</v>
+        <v>8.938724000000001</v>
       </c>
       <c r="H3">
-        <v>8.63648790913714</v>
+        <v>17.877448</v>
       </c>
       <c r="I3">
-        <v>0.3420751874765015</v>
+        <v>0.3465268197322601</v>
       </c>
       <c r="J3">
-        <v>0.3420751874765015</v>
+        <v>0.2718125595206999</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N3">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P3">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q3">
-        <v>10.87072266690623</v>
+        <v>11.863537063868</v>
       </c>
       <c r="R3">
-        <v>10.87072266690623</v>
+        <v>71.181222383208</v>
       </c>
       <c r="S3">
-        <v>0.03890972452539768</v>
+        <v>0.03801207022488556</v>
       </c>
       <c r="T3">
-        <v>0.03890972452539768</v>
+        <v>0.03591396888177296</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.63648790913714</v>
+        <v>8.938724000000001</v>
       </c>
       <c r="H4">
-        <v>8.63648790913714</v>
+        <v>17.877448</v>
       </c>
       <c r="I4">
-        <v>0.3420751874765015</v>
+        <v>0.3465268197322601</v>
       </c>
       <c r="J4">
-        <v>0.3420751874765015</v>
+        <v>0.2718125595206999</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N4">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O4">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P4">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q4">
-        <v>2.119395263458102</v>
+        <v>2.237219597616</v>
       </c>
       <c r="R4">
-        <v>2.119395263458102</v>
+        <v>13.423317585696</v>
       </c>
       <c r="S4">
-        <v>0.007585980103478865</v>
+        <v>0.007168296267398574</v>
       </c>
       <c r="T4">
-        <v>0.007585980103478865</v>
+        <v>0.006772637416473591</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.63648790913714</v>
+        <v>8.938724000000001</v>
       </c>
       <c r="H5">
-        <v>8.63648790913714</v>
+        <v>17.877448</v>
       </c>
       <c r="I5">
-        <v>0.3420751874765015</v>
+        <v>0.3465268197322601</v>
       </c>
       <c r="J5">
-        <v>0.3420751874765015</v>
+        <v>0.2718125595206999</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N5">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O5">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P5">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q5">
-        <v>3.011769326452078</v>
+        <v>3.191303242480001</v>
       </c>
       <c r="R5">
-        <v>3.011769326452078</v>
+        <v>19.14781945488</v>
       </c>
       <c r="S5">
-        <v>0.01078006664479132</v>
+        <v>0.01022528461022934</v>
       </c>
       <c r="T5">
-        <v>0.01078006664479132</v>
+        <v>0.009660893266966333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.63648790913714</v>
+        <v>8.938724000000001</v>
       </c>
       <c r="H6">
-        <v>8.63648790913714</v>
+        <v>17.877448</v>
       </c>
       <c r="I6">
-        <v>0.3420751874765015</v>
+        <v>0.3465268197322601</v>
       </c>
       <c r="J6">
-        <v>0.3420751874765015</v>
+        <v>0.2718125595206999</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N6">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O6">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P6">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q6">
-        <v>31.87116420204166</v>
+        <v>35.77169484197068</v>
       </c>
       <c r="R6">
-        <v>31.87116420204166</v>
+        <v>214.630169051824</v>
       </c>
       <c r="S6">
-        <v>0.1140768886672448</v>
+        <v>0.1146164224948971</v>
       </c>
       <c r="T6">
-        <v>0.1140768886672448</v>
+        <v>0.1082900932906048</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.63648790913714</v>
+        <v>8.938724000000001</v>
       </c>
       <c r="H7">
-        <v>8.63648790913714</v>
+        <v>17.877448</v>
       </c>
       <c r="I7">
-        <v>0.3420751874765015</v>
+        <v>0.3465268197322601</v>
       </c>
       <c r="J7">
-        <v>0.3420751874765015</v>
+        <v>0.2718125595206999</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N7">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O7">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P7">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q7">
-        <v>5.204187615846863</v>
+        <v>5.468309100620001</v>
       </c>
       <c r="R7">
-        <v>5.204187615846863</v>
+        <v>21.87323640248</v>
       </c>
       <c r="S7">
-        <v>0.01862741905168264</v>
+        <v>0.01752106040762659</v>
       </c>
       <c r="T7">
-        <v>0.01862741905168264</v>
+        <v>0.01103598259767518</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.16938642283547</v>
+        <v>5.382185666666667</v>
       </c>
       <c r="H8">
-        <v>5.16938642283547</v>
+        <v>16.146557</v>
       </c>
       <c r="I8">
-        <v>0.2047497603579225</v>
+        <v>0.2086507741237513</v>
       </c>
       <c r="J8">
-        <v>0.2047497603579225</v>
+        <v>0.2454957209561943</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N8">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O8">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P8">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q8">
-        <v>25.43415628515202</v>
+        <v>29.87640768304617</v>
       </c>
       <c r="R8">
-        <v>25.43415628515202</v>
+        <v>179.258446098277</v>
       </c>
       <c r="S8">
-        <v>0.09103681925433792</v>
+        <v>0.09572727769141293</v>
       </c>
       <c r="T8">
-        <v>0.09103681925433792</v>
+        <v>0.09044354732080612</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.16938642283547</v>
+        <v>5.382185666666667</v>
       </c>
       <c r="H9">
-        <v>5.16938642283547</v>
+        <v>16.146557</v>
       </c>
       <c r="I9">
-        <v>0.2047497603579225</v>
+        <v>0.2086507741237513</v>
       </c>
       <c r="J9">
-        <v>0.2047497603579225</v>
+        <v>0.2454957209561943</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N9">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P9">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q9">
-        <v>6.506691927544103</v>
+        <v>7.143274492099667</v>
       </c>
       <c r="R9">
-        <v>6.506691927544103</v>
+        <v>64.289470428897</v>
       </c>
       <c r="S9">
-        <v>0.02328949033380337</v>
+        <v>0.02288783270685009</v>
       </c>
       <c r="T9">
-        <v>0.02328949033380337</v>
+        <v>0.03243678547663924</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.16938642283547</v>
+        <v>5.382185666666667</v>
       </c>
       <c r="H10">
-        <v>5.16938642283547</v>
+        <v>16.146557</v>
       </c>
       <c r="I10">
-        <v>0.2047497603579225</v>
+        <v>0.2086507741237513</v>
       </c>
       <c r="J10">
-        <v>0.2047497603579225</v>
+        <v>0.2454957209561943</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N10">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O10">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P10">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q10">
-        <v>1.268568104860198</v>
+        <v>1.347074957396</v>
       </c>
       <c r="R10">
-        <v>1.268568104860198</v>
+        <v>12.123674616564</v>
       </c>
       <c r="S10">
-        <v>0.004540602958447442</v>
+        <v>0.004316175488225476</v>
       </c>
       <c r="T10">
-        <v>0.004540602958447442</v>
+        <v>0.006116911993558787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.16938642283547</v>
+        <v>5.382185666666667</v>
       </c>
       <c r="H11">
-        <v>5.16938642283547</v>
+        <v>16.146557</v>
       </c>
       <c r="I11">
-        <v>0.2047497603579225</v>
+        <v>0.2086507741237513</v>
       </c>
       <c r="J11">
-        <v>0.2047497603579225</v>
+        <v>0.2454957209561943</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N11">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O11">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P11">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q11">
-        <v>1.802700313909104</v>
+        <v>1.921547926713334</v>
       </c>
       <c r="R11">
-        <v>1.802700313909104</v>
+        <v>17.29393134042</v>
       </c>
       <c r="S11">
-        <v>0.006452429591418641</v>
+        <v>0.006156849709954529</v>
       </c>
       <c r="T11">
-        <v>0.006452429591418641</v>
+        <v>0.008725527480543538</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.16938642283547</v>
+        <v>5.382185666666667</v>
       </c>
       <c r="H12">
-        <v>5.16938642283547</v>
+        <v>16.146557</v>
       </c>
       <c r="I12">
-        <v>0.2047497603579225</v>
+        <v>0.2086507741237513</v>
       </c>
       <c r="J12">
-        <v>0.2047497603579225</v>
+        <v>0.2454957209561943</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N12">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O12">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P12">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q12">
-        <v>19.07654653596967</v>
+        <v>21.53885758759623</v>
       </c>
       <c r="R12">
-        <v>19.07654653596967</v>
+        <v>193.849718288366</v>
       </c>
       <c r="S12">
-        <v>0.06828094077592309</v>
+        <v>0.06901285533781401</v>
       </c>
       <c r="T12">
-        <v>0.06828094077592309</v>
+        <v>0.09780546775200058</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.16938642283547</v>
+        <v>5.382185666666667</v>
       </c>
       <c r="H13">
-        <v>5.16938642283547</v>
+        <v>16.146557</v>
       </c>
       <c r="I13">
-        <v>0.2047497603579225</v>
+        <v>0.2086507741237513</v>
       </c>
       <c r="J13">
-        <v>0.2047497603579225</v>
+        <v>0.2454957209561943</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N13">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O13">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P13">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q13">
-        <v>3.114976491171288</v>
+        <v>3.292578992511667</v>
       </c>
       <c r="R13">
-        <v>3.114976491171288</v>
+        <v>19.75547395507</v>
       </c>
       <c r="S13">
-        <v>0.0111494774439921</v>
+        <v>0.01054978318949424</v>
       </c>
       <c r="T13">
-        <v>0.0111494774439921</v>
+        <v>0.009967480932645999</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.7854578386653</v>
+        <v>8.798677</v>
       </c>
       <c r="H14">
-        <v>8.7854578386653</v>
+        <v>26.396031</v>
       </c>
       <c r="I14">
-        <v>0.3479756087018694</v>
+        <v>0.3410976285498224</v>
       </c>
       <c r="J14">
-        <v>0.3479756087018694</v>
+        <v>0.4013309252695205</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N14">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O14">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P14">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q14">
-        <v>43.22576983569004</v>
+        <v>48.8412844527985</v>
       </c>
       <c r="R14">
-        <v>43.22576983569004</v>
+        <v>293.047706716791</v>
       </c>
       <c r="S14">
-        <v>0.1547185820336641</v>
+        <v>0.1564928169818583</v>
       </c>
       <c r="T14">
-        <v>0.1547185820336641</v>
+        <v>0.1478550925023809</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.7854578386653</v>
+        <v>8.798677</v>
       </c>
       <c r="H15">
-        <v>8.7854578386653</v>
+        <v>26.396031</v>
       </c>
       <c r="I15">
-        <v>0.3479756087018694</v>
+        <v>0.3410976285498224</v>
       </c>
       <c r="J15">
-        <v>0.3479756087018694</v>
+        <v>0.4013309252695205</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N15">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P15">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q15">
-        <v>11.05823069177082</v>
+        <v>11.677665705139</v>
       </c>
       <c r="R15">
-        <v>11.05823069177082</v>
+        <v>105.098991346251</v>
       </c>
       <c r="S15">
-        <v>0.03958087453237866</v>
+        <v>0.03741651806343783</v>
       </c>
       <c r="T15">
-        <v>0.03958087453237866</v>
+        <v>0.05302693292332968</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.7854578386653</v>
+        <v>8.798677</v>
       </c>
       <c r="H16">
-        <v>8.7854578386653</v>
+        <v>26.396031</v>
       </c>
       <c r="I16">
-        <v>0.3479756087018694</v>
+        <v>0.3410976285498224</v>
       </c>
       <c r="J16">
-        <v>0.3479756087018694</v>
+        <v>0.4013309252695205</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N16">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O16">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P16">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q16">
-        <v>2.155952503665159</v>
+        <v>2.202168074268</v>
       </c>
       <c r="R16">
-        <v>2.155952503665159</v>
+        <v>19.819512668412</v>
       </c>
       <c r="S16">
-        <v>0.007716829927308489</v>
+        <v>0.007055987353132916</v>
       </c>
       <c r="T16">
-        <v>0.007716829927308489</v>
+        <v>0.009999791200455277</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.7854578386653</v>
+        <v>8.798677</v>
       </c>
       <c r="H17">
-        <v>8.7854578386653</v>
+        <v>26.396031</v>
       </c>
       <c r="I17">
-        <v>0.3479756087018694</v>
+        <v>0.3410976285498224</v>
       </c>
       <c r="J17">
-        <v>0.3479756087018694</v>
+        <v>0.4013309252695205</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N17">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O17">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P17">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q17">
-        <v>3.063719039001548</v>
+        <v>3.14130366254</v>
       </c>
       <c r="R17">
-        <v>3.063719039001548</v>
+        <v>28.27173296286</v>
       </c>
       <c r="S17">
-        <v>0.01096601095285716</v>
+        <v>0.01006508048782788</v>
       </c>
       <c r="T17">
-        <v>0.01096601095285716</v>
+        <v>0.0142642975755004</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.7854578386653</v>
+        <v>8.798677</v>
       </c>
       <c r="H18">
-        <v>8.7854578386653</v>
+        <v>26.396031</v>
       </c>
       <c r="I18">
-        <v>0.3479756087018694</v>
+        <v>0.3410976285498224</v>
       </c>
       <c r="J18">
-        <v>0.3479756087018694</v>
+        <v>0.4013309252695205</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N18">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O18">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P18">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q18">
-        <v>32.42090677507711</v>
+        <v>35.21124364697534</v>
       </c>
       <c r="R18">
-        <v>32.42090677507711</v>
+        <v>316.901192822778</v>
       </c>
       <c r="S18">
-        <v>0.1160445896869582</v>
+        <v>0.1128206755716066</v>
       </c>
       <c r="T18">
-        <v>0.1160445896869582</v>
+        <v>0.1598901957086769</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.7854578386653</v>
+        <v>8.798677</v>
       </c>
       <c r="H19">
-        <v>8.7854578386653</v>
+        <v>26.396031</v>
       </c>
       <c r="I19">
-        <v>0.3479756087018694</v>
+        <v>0.3410976285498224</v>
       </c>
       <c r="J19">
-        <v>0.3479756087018694</v>
+        <v>0.4013309252695205</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N19">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O19">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P19">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q19">
-        <v>5.293954135587349</v>
+        <v>5.382634648135</v>
       </c>
       <c r="R19">
-        <v>5.293954135587349</v>
+        <v>32.29580788881</v>
       </c>
       <c r="S19">
-        <v>0.01894872156870289</v>
+        <v>0.01724655009195884</v>
       </c>
       <c r="T19">
-        <v>0.01894872156870289</v>
+        <v>0.01629461535917736</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.65600591561371</v>
+        <v>2.6756</v>
       </c>
       <c r="H20">
-        <v>2.65600591561371</v>
+        <v>5.3512</v>
       </c>
       <c r="I20">
-        <v>0.1051994434637064</v>
+        <v>0.1037247775941661</v>
       </c>
       <c r="J20">
-        <v>0.1051994434637064</v>
+        <v>0.08136079425358526</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N20">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O20">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P20">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q20">
-        <v>13.06794733966775</v>
+        <v>14.8522034258</v>
       </c>
       <c r="R20">
-        <v>13.06794733966775</v>
+        <v>59.4088137032</v>
       </c>
       <c r="S20">
-        <v>0.04677428048521676</v>
+        <v>0.04758808410817446</v>
       </c>
       <c r="T20">
-        <v>0.04677428048521676</v>
+        <v>0.02997428556583906</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.65600591561371</v>
+        <v>2.6756</v>
       </c>
       <c r="H21">
-        <v>2.65600591561371</v>
+        <v>5.3512</v>
       </c>
       <c r="I21">
-        <v>0.1051994434637064</v>
+        <v>0.1037247775941661</v>
       </c>
       <c r="J21">
-        <v>0.1051994434637064</v>
+        <v>0.08136079425358526</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N21">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P21">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q21">
-        <v>3.343107060886702</v>
+        <v>3.5510750492</v>
       </c>
       <c r="R21">
-        <v>3.343107060886702</v>
+        <v>21.3064502952</v>
       </c>
       <c r="S21">
-        <v>0.011966028274644</v>
+        <v>0.01137803282590488</v>
       </c>
       <c r="T21">
-        <v>0.011966028274644</v>
+        <v>0.0107500147828786</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.65600591561371</v>
+        <v>2.6756</v>
       </c>
       <c r="H22">
-        <v>2.65600591561371</v>
+        <v>5.3512</v>
       </c>
       <c r="I22">
-        <v>0.1051994434637064</v>
+        <v>0.1037247775941661</v>
       </c>
       <c r="J22">
-        <v>0.1051994434637064</v>
+        <v>0.08136079425358526</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N22">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O22">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P22">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q22">
-        <v>0.6517841993749514</v>
+        <v>0.6696598704000001</v>
       </c>
       <c r="R22">
-        <v>0.6517841993749514</v>
+        <v>4.0179592224</v>
       </c>
       <c r="S22">
-        <v>0.002332939991643058</v>
+        <v>0.002145663463045914</v>
       </c>
       <c r="T22">
-        <v>0.002332939991643058</v>
+        <v>0.002027232149859056</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.65600591561371</v>
+        <v>2.6756</v>
       </c>
       <c r="H23">
-        <v>2.65600591561371</v>
+        <v>5.3512</v>
       </c>
       <c r="I23">
-        <v>0.1051994434637064</v>
+        <v>0.1037247775941661</v>
       </c>
       <c r="J23">
-        <v>0.1051994434637064</v>
+        <v>0.08136079425358526</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N23">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O23">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P23">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q23">
-        <v>0.9262187629600742</v>
+        <v>0.9552427120000002</v>
       </c>
       <c r="R23">
-        <v>0.9262187629600742</v>
+        <v>5.731456272000001</v>
       </c>
       <c r="S23">
-        <v>0.003315227333206141</v>
+        <v>0.003060702120697496</v>
       </c>
       <c r="T23">
-        <v>0.003315227333206141</v>
+        <v>0.00289176464393521</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.65600591561371</v>
+        <v>2.6756</v>
       </c>
       <c r="H24">
-        <v>2.65600591561371</v>
+        <v>5.3512</v>
       </c>
       <c r="I24">
-        <v>0.1051994434637064</v>
+        <v>0.1037247775941661</v>
       </c>
       <c r="J24">
-        <v>0.1051994434637064</v>
+        <v>0.08136079425358526</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N24">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O24">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P24">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q24">
-        <v>9.801437985985189</v>
+        <v>10.70742834426667</v>
       </c>
       <c r="R24">
-        <v>9.801437985985189</v>
+        <v>64.24457006560002</v>
       </c>
       <c r="S24">
-        <v>0.03508241941894642</v>
+        <v>0.03430777144784274</v>
       </c>
       <c r="T24">
-        <v>0.03508241941894642</v>
+        <v>0.03241413132437494</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.65600591561371</v>
+        <v>2.6756</v>
       </c>
       <c r="H25">
-        <v>2.65600591561371</v>
+        <v>5.3512</v>
       </c>
       <c r="I25">
-        <v>0.1051994434637064</v>
+        <v>0.1037247775941661</v>
       </c>
       <c r="J25">
-        <v>0.1051994434637064</v>
+        <v>0.08136079425358526</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N25">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O25">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P25">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q25">
-        <v>1.600459960006341</v>
+        <v>1.636811678</v>
       </c>
       <c r="R25">
-        <v>1.600459960006341</v>
+        <v>6.547246712000001</v>
       </c>
       <c r="S25">
-        <v>0.005728547960050066</v>
+        <v>0.005244523628500635</v>
       </c>
       <c r="T25">
-        <v>0.005728547960050066</v>
+        <v>0.003303365786698382</v>
       </c>
     </row>
   </sheetData>
